--- a/opinions/parsed_wiki_data/2019.xlsx
+++ b/opinions/parsed_wiki_data/2019.xlsx
@@ -3542,7 +3542,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t xml:space="preserve">dissentwithoutopinion </t>
+          <t>dissentwithoutopinion</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">

--- a/opinions/parsed_wiki_data/2019.xlsx
+++ b/opinions/parsed_wiki_data/2019.xlsx
@@ -487,47 +487,47 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -537,7 +537,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -552,32 +552,32 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -587,27 +587,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -617,17 +617,17 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -637,12 +637,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -652,32 +652,32 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -687,47 +687,47 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority joinconcurrence</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -737,47 +737,47 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority joinconcurrence</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -787,12 +787,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>partjoinmajority</t>
+          <t>partjoinmajority majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -802,32 +802,32 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>concurrence2</t>
+          <t>concurrence</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -837,12 +837,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -852,7 +852,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -862,22 +862,22 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority joinconcurrence</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -887,37 +887,37 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -927,7 +927,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -937,12 +937,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -952,27 +952,27 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -987,12 +987,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1002,32 +1002,32 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority</t>
         </is>
       </c>
     </row>
@@ -1037,17 +1037,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1057,27 +1057,27 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority joinconcurrence</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -1087,22 +1087,22 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1112,22 +1112,22 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -1137,22 +1137,22 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>joinconcurrencedissent</t>
+          <t>concurrence dissent concurrencedissent joinconcurrencedissent joinconcurrence</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>concurrencedissent</t>
+          <t>concurrence dissent concurrencedissent</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1162,22 +1162,22 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>joinconcurrencedissent</t>
+          <t>concurrence dissent concurrencedissent joinconcurrencedissent joinconcurrence</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>joinconcurrencedissent</t>
+          <t>concurrence dissent concurrencedissent joinconcurrencedissent joinconcurrence</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority joinconcurrence</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -1187,7 +1187,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1197,7 +1197,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1207,27 +1207,27 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>partjoindissent</t>
+          <t>dissent partjoindissent joindissent</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -1237,32 +1237,32 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>partjoinmajority</t>
+          <t>partjoinmajority majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>joinconcurrence2</t>
+          <t>concurrence joinconcurrence</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>concurrence2</t>
+          <t>concurrence</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1272,12 +1272,12 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -1287,17 +1287,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1307,12 +1307,12 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1322,12 +1322,12 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -1337,37 +1337,37 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>partjoinmajority</t>
+          <t>partjoinmajority majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1377,7 +1377,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -1387,47 +1387,47 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -1437,7 +1437,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1447,17 +1447,17 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1467,17 +1467,17 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -1487,7 +1487,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1497,17 +1497,17 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority joinconcurrence</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1517,17 +1517,17 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -1537,7 +1537,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1547,12 +1547,12 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>partjoinmajority</t>
+          <t>partjoinmajority majority concurrence joinmajority joinconcurrence</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1562,22 +1562,22 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -1587,12 +1587,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1602,32 +1602,32 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -1642,42 +1642,42 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>partjoinmajority</t>
+          <t>partjoinmajority majority concurrence dissent concurrencedissent joinconcurrencedissent joinmajority joinconcurrence</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>partjoinmajority</t>
+          <t>partjoinmajority majority concurrence dissent concurrencedissent joinmajority</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>partjoinmajority</t>
+          <t>partjoinmajority majority concurrence dissent concurrencedissent joinmajority</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -1687,12 +1687,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>partjoinmajority</t>
+          <t>partjoinmajority majority joinmajority</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1702,22 +1702,22 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>partjoinmajority</t>
+          <t>partjoinmajority majority joinmajority</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>partjoindissent</t>
+          <t>dissent partjoindissent joindissent</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -1727,7 +1727,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -1737,22 +1737,22 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>concurrence1</t>
+          <t>concurrence</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1762,12 +1762,12 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>partjoinmajority</t>
+          <t>partjoinmajority majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>partjoindissent</t>
+          <t>dissent partjoindissent joindissent</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -1777,7 +1777,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>partjoinmajority</t>
+          <t>partjoinmajority majority concurrence joinmajority</t>
         </is>
       </c>
     </row>
@@ -1787,17 +1787,17 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>dissent1</t>
+          <t>dissent</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1807,27 +1807,27 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>dissent2</t>
+          <t>dissent</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>joindissent1</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority</t>
         </is>
       </c>
     </row>
@@ -1837,37 +1837,37 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority joinconcurrence</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>concurrence2</t>
+          <t>concurrence</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority joinconcurrence</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -1877,7 +1877,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -1887,27 +1887,27 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -1917,12 +1917,12 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1942,42 +1942,42 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>dissent1</t>
+          <t>dissent</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>dissent2</t>
+          <t>dissent</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>partjoindissent1|justice4-opinion2</t>
+          <t>dissent partjoindissent joindissent</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>joindissent1</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -1987,22 +1987,22 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>partjoinmajority</t>
+          <t>partjoinmajority majority joinmajority</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2017,17 +2017,17 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>partjoinmajority</t>
+          <t>partjoinmajority majority joinmajority</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -2037,22 +2037,22 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>partjoindissent</t>
+          <t>dissent partjoindissent joindissent</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2062,22 +2062,22 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority</t>
         </is>
       </c>
     </row>
@@ -2087,12 +2087,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -2102,32 +2102,32 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -2137,32 +2137,32 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -2172,12 +2172,12 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -2187,27 +2187,27 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -2217,17 +2217,17 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -2237,37 +2237,37 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -2287,7 +2287,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2297,37 +2297,37 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -2337,17 +2337,17 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>concurrence1</t>
+          <t>concurrence</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2357,27 +2357,27 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>concurrence2</t>
+          <t>concurrence</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -2387,22 +2387,22 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -2412,7 +2412,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -2422,12 +2422,12 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -2437,27 +2437,27 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -2467,12 +2467,12 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority joinconcurrence</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2487,7 +2487,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2497,32 +2497,32 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2537,32 +2537,32 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>partjoinmajority</t>
+          <t>partjoinmajority majority joinmajority</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -2572,12 +2572,12 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -2587,7 +2587,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2597,17 +2597,17 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>partjoinmajority</t>
+          <t>partjoinmajority majority joinmajority</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -2617,17 +2617,17 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -2637,37 +2637,37 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>joindissent1</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>dissent1</t>
+          <t>dissent</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -2677,7 +2677,7 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>dissent2</t>
+          <t>dissent</t>
         </is>
       </c>
     </row>
@@ -2687,22 +2687,22 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -2712,22 +2712,22 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -2742,42 +2742,42 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>concurrencedissent1</t>
+          <t>concurrence dissent concurrencedissent</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>joinconcurrencedissent1</t>
+          <t>concurrence dissent concurrencedissent joinconcurrencedissent joinconcurrence</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>partjoinmajority</t>
+          <t>partjoinmajority majority concurrence dissent concurrencedissent joinmajority</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>joinconcurrencedissent1</t>
+          <t>concurrence dissent concurrencedissent joinconcurrencedissent joinconcurrence</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>concurrencedissent4</t>
+          <t>concurrence dissent concurrencedissent</t>
         </is>
       </c>
     </row>
@@ -2787,7 +2787,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2797,17 +2797,17 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -2817,17 +2817,17 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -2837,22 +2837,22 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>joinmajority|justice2-opinion2</t>
+          <t>majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>joinconcurrence2</t>
+          <t>concurrence joinconcurrence</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>concurrence2|justice4-sortcode</t>
+          <t>concurrence</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -2867,17 +2867,17 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -2892,42 +2892,42 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>partjoinmajority|justice2-opinion2</t>
+          <t>partjoinmajority majority concurrence dissent concurrencedissent joinmajority</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>joinconcurrencedissent2</t>
+          <t>concurrence dissent concurrencedissent joinconcurrencedissent joinconcurrence</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>joinconcurrencedissent2</t>
+          <t>concurrence dissent concurrencedissent joinconcurrencedissent joinconcurrence</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>joinconcurrencedissent2</t>
+          <t>concurrence dissent concurrencedissent joinconcurrencedissent joinconcurrence</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>concurrencedissent2</t>
+          <t>concurrence dissent concurrencedissent</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>partjoinmajority</t>
+          <t>partjoinmajority majority concurrence dissent concurrencedissent joinconcurrencedissent joinmajority joinconcurrence</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -2942,12 +2942,12 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>dissent1</t>
+          <t>dissent partjoindissent joindissent</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>joinplurality</t>
+          <t>joinplurality plurality</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2957,27 +2957,27 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>dissent2</t>
+          <t>dissent</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>joinplurality</t>
+          <t>joinplurality plurality</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>joinplurality</t>
+          <t>joinplurality plurality</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>joindissent2</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>partjoindissent2</t>
+          <t>dissent partjoindissent joindissent</t>
         </is>
       </c>
     </row>
@@ -2987,17 +2987,17 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>joinmajority|justice2-opinion2</t>
+          <t>majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -3007,12 +3007,12 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -3022,7 +3022,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -3042,42 +3042,42 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>dissent1</t>
+          <t>dissent</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>dissent2</t>
+          <t>dissent</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>dissent3</t>
+          <t>dissent</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>joindissent1</t>
+          <t>dissent partjoindissent joindissent</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority joinconcurrence</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -3087,12 +3087,12 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -3107,27 +3107,27 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -3137,7 +3137,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -3147,22 +3147,22 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -3172,12 +3172,12 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence partjoinconcurrence joinmajority joinconcurrence</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -3187,27 +3187,27 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>partjoinmajority</t>
+          <t>partjoinmajority majority concurrence partjoinconcurrence dissent concurrencedissent joinconcurrencedissent joinmajority joinconcurrence partjoinconcurrencedissent</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>joinconcurrencedissent1</t>
+          <t>concurrence dissent concurrencedissent joinconcurrencedissent joinconcurrence</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>concurrencedissent1</t>
+          <t>concurrence dissent concurrencedissent</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -3217,12 +3217,12 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>joinconcurrencedissent1</t>
+          <t>concurrence dissent concurrencedissent joinconcurrencedissent joinconcurrence</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>concurrencedissent2</t>
+          <t>concurrence dissent concurrencedissent</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3237,27 +3237,27 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>concurrencewithoutopinion</t>
+          <t>concurrence concurrencewithoutopinion</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -3267,17 +3267,17 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -3287,7 +3287,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3302,32 +3302,32 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>joinconcurrence2</t>
+          <t>concurrence joinconcurrence</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>concurrence2</t>
+          <t>concurrence</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority joinconcurrence</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -3337,22 +3337,22 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -3367,17 +3367,17 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority joinconcurrence</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -3392,37 +3392,37 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>dissent1</t>
+          <t>dissent</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>dissent2</t>
+          <t>dissent</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>joinconcurrence</t>
+          <t>concurrence joinconcurrence</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3442,42 +3442,42 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>dissent1</t>
+          <t>dissent</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>dissent2</t>
+          <t>dissent</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -3487,37 +3487,37 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>dissent1</t>
+          <t>dissent</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>partjoindissent1</t>
+          <t>dissent partjoindissent joindissent</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>joindissent1</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -3527,7 +3527,7 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>joindissent1</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
     </row>
@@ -3537,37 +3537,37 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>dissentwithoutopinion</t>
+          <t>dissentwithoutopinion dissent</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>dissentwithoutopinion</t>
+          <t>dissentwithoutopinion dissent</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -3577,7 +3577,7 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>

--- a/opinions/parsed_wiki_data/2019.xlsx
+++ b/opinions/parsed_wiki_data/2019.xlsx
@@ -487,47 +487,47 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -537,7 +537,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -552,32 +552,32 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -587,27 +587,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -617,17 +617,17 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -637,12 +637,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -652,32 +652,32 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -687,47 +687,47 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority joinconcurrence</t>
+          <t>concurrence joinconcurrence joinmajority majority</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -737,47 +737,47 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority joinconcurrence</t>
+          <t>concurrence joinconcurrence joinmajority majority</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -787,12 +787,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>partjoinmajority majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority partjoinmajority</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -802,7 +802,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -812,22 +812,22 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -837,12 +837,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -872,12 +872,12 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority joinconcurrence</t>
+          <t>concurrence joinconcurrence joinmajority majority</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -887,37 +887,37 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -927,7 +927,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -937,12 +937,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -957,7 +957,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -972,7 +972,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -987,12 +987,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1002,32 +1002,32 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -1037,17 +1037,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1057,27 +1057,27 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority joinconcurrence</t>
+          <t>concurrence joinconcurrence joinmajority majority</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -1087,22 +1087,22 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1112,22 +1112,22 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -1137,22 +1137,22 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>concurrence dissent concurrencedissent joinconcurrencedissent joinconcurrence</t>
+          <t>concurrence concurrencedissent dissent joinconcurrence joinconcurrencedissent</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>concurrence dissent concurrencedissent</t>
+          <t>concurrence concurrencedissent dissent</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1162,22 +1162,22 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>concurrence dissent concurrencedissent joinconcurrencedissent joinconcurrence</t>
+          <t>concurrence concurrencedissent dissent joinconcurrence joinconcurrencedissent</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>concurrence dissent concurrencedissent joinconcurrencedissent joinconcurrence</t>
+          <t>concurrence concurrencedissent dissent joinconcurrence joinconcurrencedissent</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority joinconcurrence</t>
+          <t>concurrence joinconcurrence joinmajority majority</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -1187,7 +1187,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1197,7 +1197,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1207,27 +1207,27 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>dissent partjoindissent joindissent</t>
+          <t>dissent joindissent partjoindissent</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -1237,12 +1237,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>partjoinmajority majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority partjoinmajority</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1257,12 +1257,12 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1272,12 +1272,12 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -1287,12 +1287,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1307,7 +1307,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1322,12 +1322,12 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -1337,37 +1337,37 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>partjoinmajority majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority partjoinmajority</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1377,7 +1377,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -1387,47 +1387,47 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -1437,7 +1437,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1447,12 +1447,12 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1467,17 +1467,17 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -1487,7 +1487,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1497,17 +1497,17 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority joinconcurrence</t>
+          <t>concurrence joinconcurrence joinmajority majority</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1517,17 +1517,17 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -1537,7 +1537,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1547,12 +1547,12 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>partjoinmajority majority concurrence joinmajority joinconcurrence</t>
+          <t>concurrence joinconcurrence joinmajority majority partjoinmajority</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1562,22 +1562,22 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -1587,12 +1587,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1607,7 +1607,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1622,12 +1622,12 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -1642,42 +1642,42 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>partjoinmajority majority concurrence dissent concurrencedissent joinconcurrencedissent joinmajority joinconcurrence</t>
+          <t>concurrence concurrencedissent dissent joinconcurrence joinconcurrencedissent joinmajority majority partjoinmajority</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>partjoinmajority majority concurrence dissent concurrencedissent joinmajority</t>
+          <t>concurrence concurrencedissent dissent joinmajority majority partjoinmajority</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>partjoinmajority majority concurrence dissent concurrencedissent joinmajority</t>
+          <t>concurrence concurrencedissent dissent joinmajority majority partjoinmajority</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -1687,12 +1687,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>partjoinmajority majority joinmajority</t>
+          <t>joinmajority majority partjoinmajority</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1702,22 +1702,22 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>partjoinmajority majority joinmajority</t>
+          <t>joinmajority majority partjoinmajority</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>dissent partjoindissent joindissent</t>
+          <t>dissent joindissent partjoindissent</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -1727,7 +1727,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -1747,12 +1747,12 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1762,12 +1762,12 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>partjoinmajority majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority partjoinmajority</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>dissent partjoindissent joindissent</t>
+          <t>dissent joindissent partjoindissent</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -1777,7 +1777,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>partjoinmajority majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority partjoinmajority</t>
         </is>
       </c>
     </row>
@@ -1787,7 +1787,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1797,7 +1797,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1812,12 +1812,12 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -1827,7 +1827,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -1837,27 +1837,27 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority joinconcurrence</t>
+          <t>concurrence joinconcurrence joinmajority majority</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -1867,7 +1867,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority joinconcurrence</t>
+          <t>concurrence joinconcurrence joinmajority majority</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -1877,7 +1877,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -1887,12 +1887,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -1922,7 +1922,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1952,7 +1952,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>dissent partjoindissent joindissent</t>
+          <t>dissent joindissent partjoindissent</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -1962,22 +1962,22 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -1987,22 +1987,22 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>partjoinmajority majority joinmajority</t>
+          <t>joinmajority majority partjoinmajority</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2017,17 +2017,17 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>partjoinmajority majority joinmajority</t>
+          <t>joinmajority majority partjoinmajority</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -2037,22 +2037,22 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>dissent partjoindissent joindissent</t>
+          <t>dissent joindissent partjoindissent</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2062,12 +2062,12 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2077,7 +2077,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -2087,12 +2087,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -2102,32 +2102,32 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -2137,32 +2137,32 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -2172,12 +2172,12 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -2187,27 +2187,27 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -2217,17 +2217,17 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -2237,37 +2237,37 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -2287,7 +2287,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2297,37 +2297,37 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -2337,7 +2337,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2347,7 +2347,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2357,7 +2357,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -2367,17 +2367,17 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -2387,7 +2387,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2397,12 +2397,12 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -2412,7 +2412,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -2422,12 +2422,12 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -2437,12 +2437,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -2457,7 +2457,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -2472,7 +2472,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority joinconcurrence</t>
+          <t>concurrence joinconcurrence joinmajority majority</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2487,7 +2487,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2497,12 +2497,12 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -2512,17 +2512,17 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2537,32 +2537,32 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>partjoinmajority majority joinmajority</t>
+          <t>joinmajority majority partjoinmajority</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -2572,12 +2572,12 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -2587,7 +2587,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2597,17 +2597,17 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>partjoinmajority majority joinmajority</t>
+          <t>joinmajority majority partjoinmajority</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -2622,12 +2622,12 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -2637,7 +2637,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2647,12 +2647,12 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -2662,12 +2662,12 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -2687,7 +2687,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2697,12 +2697,12 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -2712,12 +2712,12 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -2727,7 +2727,7 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -2742,42 +2742,42 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>concurrence dissent concurrencedissent</t>
+          <t>concurrence concurrencedissent dissent</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>concurrence dissent concurrencedissent joinconcurrencedissent joinconcurrence</t>
+          <t>concurrence concurrencedissent dissent joinconcurrence joinconcurrencedissent</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>partjoinmajority majority concurrence dissent concurrencedissent joinmajority</t>
+          <t>concurrence concurrencedissent dissent joinmajority majority partjoinmajority</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>concurrence dissent concurrencedissent joinconcurrencedissent joinconcurrence</t>
+          <t>concurrence concurrencedissent dissent joinconcurrence joinconcurrencedissent</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>concurrence dissent concurrencedissent</t>
+          <t>concurrence concurrencedissent dissent</t>
         </is>
       </c>
     </row>
@@ -2787,7 +2787,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2797,17 +2797,17 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -2817,17 +2817,17 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -2837,12 +2837,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -2872,12 +2872,12 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -2892,42 +2892,42 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>partjoinmajority majority concurrence dissent concurrencedissent joinmajority</t>
+          <t>concurrence concurrencedissent dissent joinmajority majority partjoinmajority</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>concurrence dissent concurrencedissent joinconcurrencedissent joinconcurrence</t>
+          <t>concurrence concurrencedissent dissent joinconcurrence joinconcurrencedissent</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>concurrence dissent concurrencedissent joinconcurrencedissent joinconcurrence</t>
+          <t>concurrence concurrencedissent dissent joinconcurrence joinconcurrencedissent</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>concurrence dissent concurrencedissent joinconcurrencedissent joinconcurrence</t>
+          <t>concurrence concurrencedissent dissent joinconcurrence joinconcurrencedissent</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>concurrence dissent concurrencedissent</t>
+          <t>concurrence concurrencedissent dissent</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>partjoinmajority majority concurrence dissent concurrencedissent joinconcurrencedissent joinmajority joinconcurrence</t>
+          <t>concurrence concurrencedissent dissent joinconcurrence joinconcurrencedissent joinmajority majority partjoinmajority</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -2942,7 +2942,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>dissent partjoindissent joindissent</t>
+          <t>dissent joindissent partjoindissent</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2977,7 +2977,7 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>dissent partjoindissent joindissent</t>
+          <t>dissent joindissent partjoindissent</t>
         </is>
       </c>
     </row>
@@ -2987,12 +2987,12 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -3007,7 +3007,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -3022,7 +3022,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -3042,7 +3042,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -3057,7 +3057,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -3067,17 +3067,17 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>dissent partjoindissent joindissent</t>
+          <t>dissent joindissent partjoindissent</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority joinconcurrence</t>
+          <t>concurrence joinconcurrence joinmajority majority</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -3087,12 +3087,12 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -3107,27 +3107,27 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -3137,7 +3137,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -3147,22 +3147,22 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -3172,12 +3172,12 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>majority concurrence partjoinconcurrence joinmajority joinconcurrence</t>
+          <t>concurrence joinconcurrence joinmajority majority partjoinconcurrence</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -3187,27 +3187,27 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>partjoinmajority majority concurrence partjoinconcurrence dissent concurrencedissent joinconcurrencedissent joinmajority joinconcurrence partjoinconcurrencedissent</t>
+          <t>concurrence concurrencedissent dissent joinconcurrence joinconcurrencedissent joinmajority majority partjoinconcurrence partjoinconcurrencedissent partjoinmajority</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>concurrence dissent concurrencedissent joinconcurrencedissent joinconcurrence</t>
+          <t>concurrence concurrencedissent dissent joinconcurrence joinconcurrencedissent</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>concurrence dissent concurrencedissent</t>
+          <t>concurrence concurrencedissent dissent</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -3217,12 +3217,12 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>concurrence dissent concurrencedissent joinconcurrencedissent joinconcurrence</t>
+          <t>concurrence concurrencedissent dissent joinconcurrence joinconcurrencedissent</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>concurrence dissent concurrencedissent</t>
+          <t>concurrence concurrencedissent dissent</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3237,7 +3237,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3247,17 +3247,17 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -3267,17 +3267,17 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -3287,7 +3287,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3307,7 +3307,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -3322,12 +3322,12 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority joinconcurrence</t>
+          <t>concurrence joinconcurrence joinmajority majority</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -3337,12 +3337,12 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -3367,17 +3367,17 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority joinconcurrence</t>
+          <t>concurrence joinconcurrence joinmajority majority</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -3397,12 +3397,12 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -3412,12 +3412,12 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -3447,12 +3447,12 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -3462,22 +3462,22 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -3492,17 +3492,17 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>dissent partjoindissent joindissent</t>
+          <t>dissent joindissent partjoindissent</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -3512,12 +3512,12 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -3537,37 +3537,37 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>dissentwithoutopinion dissent</t>
+          <t>dissent dissentwithoutopinion</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>dissentwithoutopinion dissent</t>
+          <t>dissent dissentwithoutopinion</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -3577,7 +3577,7 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
